--- a/cbrunner/Parameters/Table_BCFCS_ComparisonWithNIR.xlsx
+++ b/cbrunner/Parameters/Table_BCFCS_ComparisonWithNIR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BD03A3-C011-4A82-8190-E9CF7F889F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA7911A-7020-4704-9D88-19CCC70EBD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{5E55FEDC-EEAF-4263-A1FF-FFFB8EAE3397}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{5E55FEDC-EEAF-4263-A1FF-FFFB8EAE3397}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Yes</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Forest Land</t>
   </si>
   <si>
-    <t>Crown Forest Land</t>
-  </si>
-  <si>
     <t>Time period</t>
   </si>
   <si>
@@ -65,30 +62,12 @@
     <t>Method of anthropogenic partitioning</t>
   </si>
   <si>
-    <t>Area-based method</t>
-  </si>
-  <si>
-    <t>Activity-based method</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
-    <t>Inclusion of JSS reporting</t>
-  </si>
-  <si>
-    <t>Inclusion of AC reporting</t>
-  </si>
-  <si>
-    <t>Stratification of results by Tier 3 activity/policy categories</t>
-  </si>
-  <si>
     <t>Stratification of results by biophysical process</t>
   </si>
   <si>
-    <t>Stratification of results by Tier 4 activity/policy categories</t>
-  </si>
-  <si>
     <t>Direct biogeochemical radiative forcing</t>
   </si>
   <si>
@@ -110,7 +89,40 @@
     <t>Annual</t>
   </si>
   <si>
-    <t>Future reporting periodicity</t>
+    <t>2 years</t>
+  </si>
+  <si>
+    <t>3 months</t>
+  </si>
+  <si>
+    <t>Reporting periodicity</t>
+  </si>
+  <si>
+    <t>Reporting lag time</t>
+  </si>
+  <si>
+    <t>Public Forest Land</t>
+  </si>
+  <si>
+    <t>Area-based method of the NGHGI modelling community of IPPC contributors (Kurz et al. 2018)</t>
+  </si>
+  <si>
+    <t>Scenario comparisons-based method (Global Carbon Budget Modelling community of IPCC contributors; Friedlingstein et al. 2022)</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Scope 1 (domestic LULUCF sector)</t>
+  </si>
+  <si>
+    <t>Scope 1 (domestic LULUCF sector) and Scope 2 (domestic LULUCF sector + international LULUCF sector + geological deposits)</t>
+  </si>
+  <si>
+    <t>Stratification of results by Tier 3 action categories</t>
+  </si>
+  <si>
+    <t>Stratification of results by Tier 4 action categories</t>
   </si>
 </sst>
 </file>
@@ -175,9 +187,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -215,7 +227,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -321,7 +333,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -463,7 +475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -474,25 +486,25 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1"/>
+    <col min="1" max="1" width="49" customWidth="1"/>
     <col min="2" max="2" width="28.77734375" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -503,48 +515,48 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -552,10 +564,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -563,7 +575,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -574,10 +586,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -585,18 +597,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -607,7 +619,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -618,24 +630,24 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
